--- a/public/Format_Mahasiswa.xlsx
+++ b/public/Format_Mahasiswa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mybir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\kprak\kerja_praktek\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mybir</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HANYA BOLEH DIISI MENGGUNAKAN
+- mahasiswa</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>nrp</t>
   </si>
@@ -66,13 +91,25 @@
   </si>
   <si>
     <t>perempuan</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sebagai</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>mahasiswa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +132,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -442,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,9 +499,11 @@
     <col min="4" max="4" width="26" style="7" customWidth="1"/>
     <col min="5" max="5" width="26" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,8 +522,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>123456789</v>
       </c>
@@ -496,8 +548,14 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="5">
+        <v>12345678</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>987654321</v>
       </c>
@@ -515,6 +573,12 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -524,5 +588,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>